--- a/24년/9월/테스트케이스 실습.xlsx
+++ b/24년/9월/테스트케이스 실습.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imac01/개발/multicampus/TIL/24년/9월/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imac01/개발/multicampus/TIL/24년/9월/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1FE4DF0-00FE-C541-B347-F4E853675538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E69D6F-7084-1D40-94B0-838A0294652B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="3620" windowWidth="28100" windowHeight="17380" xr2:uid="{3D016F5E-F790-E74F-836A-80237DB35255}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="44800" windowHeight="25200" xr2:uid="{3D016F5E-F790-E74F-836A-80237DB35255}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,43 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사전조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트일정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -414,14 +451,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66329981-D1EF-6548-857A-9B42C2516497}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/24년/9월/테스트케이스 실습.xlsx
+++ b/24년/9월/테스트케이스 실습.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imac01/개발/multicampus/TIL/24년/9월/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E69D6F-7084-1D40-94B0-838A0294652B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FB4762-1591-2D45-AEB8-7E6A4CCF8EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="44800" windowHeight="25200" xr2:uid="{3D016F5E-F790-E74F-836A-80237DB35255}"/>
+    <workbookView xWindow="1120" yWindow="500" windowWidth="43680" windowHeight="24700" xr2:uid="{3D016F5E-F790-E74F-836A-80237DB35255}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,7 +67,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>테스트일정</t>
+    <t>문서번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능/비기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 환경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중요도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -91,20 +128,41 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -113,8 +171,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -451,38 +515,847 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66329981-D1EF-6548-857A-9B42C2516497}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C4E216D0-EA11-464B-9388-D63E39273EC4}">
+          <x14:formula1>
+            <xm:f>Sheet2!$B$1:$B$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E3 F3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{509B09F0-C69E-F14D-971F-9927F7EDC541}">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$1:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE287673-1E09-B24E-BE81-BE4CBDEEC8FB}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/24년/9월/테스트케이스 실습.xlsx
+++ b/24년/9월/테스트케이스 실습.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imac01/개발/multicampus/TIL/24년/9월/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FB4762-1591-2D45-AEB8-7E6A4CCF8EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB1CBAD-2C55-D24A-AAB6-C9FF887AB6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="500" windowWidth="43680" windowHeight="24700" xr2:uid="{3D016F5E-F790-E74F-836A-80237DB35255}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="44800" windowHeight="25200" activeTab="2" xr2:uid="{3D016F5E-F790-E74F-836A-80237DB35255}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="이슈등록" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -517,7 +518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66329981-D1EF-6548-857A-9B42C2516497}">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1362,4 +1363,17 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789603C5-52C0-4347-950F-2D73A3E4144F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/24년/9월/테스트케이스 실습.xlsx
+++ b/24년/9월/테스트케이스 실습.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imac01/개발/multicampus/TIL/24년/9월/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB1CBAD-2C55-D24A-AAB6-C9FF887AB6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE16A8B-3875-C74C-A41F-E91D78CCFC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="44800" windowHeight="25200" activeTab="2" xr2:uid="{3D016F5E-F790-E74F-836A-80237DB35255}"/>
+    <workbookView xWindow="1140" yWindow="500" windowWidth="43660" windowHeight="24700" activeTab="1" xr2:uid="{3D016F5E-F790-E74F-836A-80237DB35255}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="이슈등록" sheetId="3" r:id="rId3"/>
+    <sheet name="결함기록" sheetId="1" r:id="rId1"/>
+    <sheet name="이슈등록" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,26 @@
   </si>
   <si>
     <t>중요도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결함 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참고이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이슈타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이슈 버전</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -172,7 +192,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -181,6 +201,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,7 +542,7 @@
   <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1329,6 +1352,610 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789603C5-52C0-4347-950F-2D73A3E4144F}">
+  <dimension ref="A1:F72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE287673-1E09-B24E-BE81-BE4CBDEEC8FB}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1363,17 +1990,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789603C5-52C0-4347-950F-2D73A3E4144F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/24년/9월/테스트케이스 실습.xlsx
+++ b/24년/9월/테스트케이스 실습.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imac01/개발/multicampus/TIL/24년/9월/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA87EAF-C1BB-0244-9C88-1834F4164000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A02D51-5C65-D94D-8C47-34FCFEE55054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="500" windowWidth="43660" windowHeight="24700" xr2:uid="{3D016F5E-F790-E74F-836A-80237DB35255}"/>
   </bookViews>
@@ -132,7 +132,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>네이버 테스트</t>
+    <t>steam 게임 테스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -188,18 +188,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,7 +541,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -562,31 +565,31 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="4" t="s">
         <v>5</v>
       </c>
     </row>

--- a/24년/9월/테스트케이스 실습.xlsx
+++ b/24년/9월/테스트케이스 실습.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imac01/개발/multicampus/TIL/24년/9월/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A02D51-5C65-D94D-8C47-34FCFEE55054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDFD570-F857-AE42-A4FD-E769D56018D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="500" windowWidth="43660" windowHeight="24700" xr2:uid="{3D016F5E-F790-E74F-836A-80237DB35255}"/>
+    <workbookView xWindow="1140" yWindow="500" windowWidth="43660" windowHeight="24700" activeTab="1" xr2:uid="{3D016F5E-F790-E74F-836A-80237DB35255}"/>
   </bookViews>
   <sheets>
     <sheet name="결함기록" sheetId="1" r:id="rId1"/>
@@ -38,16 +38,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>페이지번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>요약</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,10 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>문서번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>테스트일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이슈타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,7 +120,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>steam 게임 테스트</t>
+    <t>steam 게임 테스트(3D 게임)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참고자료 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>major</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재현절차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이슈 중요도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,81 +554,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66329981-D1EF-6548-857A-9B42C2516497}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="10.7109375" style="3"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -625,13 +633,13 @@
           <x14:formula1>
             <xm:f>Sheet2!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E4 F4</xm:sqref>
+          <xm:sqref>D3:D4 E4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{509B09F0-C69E-F14D-971F-9927F7EDC541}">
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>F3</xm:sqref>
+          <xm:sqref>E3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -641,637 +649,319 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789603C5-52C0-4347-950F-2D73A3E4144F}">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="3" width="10.7109375" style="1"/>
+    <col min="5" max="7" width="10.7109375" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>20</v>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+    </row>
+    <row r="17" spans="4:4">
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+    </row>
+    <row r="18" spans="4:4">
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+    </row>
+    <row r="19" spans="4:4">
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+    </row>
+    <row r="20" spans="4:4">
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+    </row>
+    <row r="21" spans="4:4">
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+    </row>
+    <row r="22" spans="4:4">
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+    </row>
+    <row r="23" spans="4:4">
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+    </row>
+    <row r="24" spans="4:4">
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+    </row>
+    <row r="25" spans="4:4">
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+    </row>
+    <row r="26" spans="4:4">
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+    </row>
+    <row r="27" spans="4:4">
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+    </row>
+    <row r="28" spans="4:4">
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+    </row>
+    <row r="29" spans="4:4">
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+    </row>
+    <row r="30" spans="4:4">
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+    </row>
+    <row r="31" spans="4:4">
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+    </row>
+    <row r="32" spans="4:4">
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+    </row>
+    <row r="33" spans="4:4">
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+    </row>
+    <row r="34" spans="4:4">
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+    </row>
+    <row r="35" spans="4:4">
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+    </row>
+    <row r="36" spans="4:4">
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+    </row>
+    <row r="37" spans="4:4">
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+    </row>
+    <row r="38" spans="4:4">
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+    </row>
+    <row r="39" spans="4:4">
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+    </row>
+    <row r="40" spans="4:4">
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+    </row>
+    <row r="41" spans="4:4">
       <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+    </row>
+    <row r="42" spans="4:4">
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+    </row>
+    <row r="43" spans="4:4">
       <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+    </row>
+    <row r="44" spans="4:4">
       <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+    </row>
+    <row r="45" spans="4:4">
       <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+    </row>
+    <row r="46" spans="4:4">
       <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+    </row>
+    <row r="47" spans="4:4">
       <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+    </row>
+    <row r="48" spans="4:4">
       <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+    </row>
+    <row r="49" spans="4:4">
       <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+    </row>
+    <row r="50" spans="4:4">
       <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+    </row>
+    <row r="51" spans="4:4">
       <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+    </row>
+    <row r="52" spans="4:4">
       <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
+    </row>
+    <row r="53" spans="4:4">
       <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+    </row>
+    <row r="54" spans="4:4">
       <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
+    </row>
+    <row r="55" spans="4:4">
       <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
+    </row>
+    <row r="56" spans="4:4">
       <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
+    </row>
+    <row r="57" spans="4:4">
       <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
+    </row>
+    <row r="58" spans="4:4">
       <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
+    </row>
+    <row r="59" spans="4:4">
       <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
+    </row>
+    <row r="60" spans="4:4">
       <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
+    </row>
+    <row r="61" spans="4:4">
       <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
+    </row>
+    <row r="62" spans="4:4">
       <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+    </row>
+    <row r="63" spans="4:4">
       <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
+    </row>
+    <row r="64" spans="4:4">
       <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
+    </row>
+    <row r="65" spans="4:4">
       <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
+    </row>
+    <row r="66" spans="4:4">
       <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
+    </row>
+    <row r="67" spans="4:4">
       <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
+    </row>
+    <row r="68" spans="4:4">
       <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
+    </row>
+    <row r="69" spans="4:4">
       <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
+    </row>
+    <row r="70" spans="4:4">
       <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
+    </row>
+    <row r="71" spans="4:4">
       <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
+    </row>
+    <row r="72" spans="4:4">
       <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{993F51BF-7C6C-734B-AC40-56BBBFB4534D}">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$5:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE287673-1E09-B24E-BE81-BE4CBDEEC8FB}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/24년/9월/테스트케이스 실습.xlsx
+++ b/24년/9월/테스트케이스 실습.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imac01/개발/multicampus/TIL/24년/9월/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDFD570-F857-AE42-A4FD-E769D56018D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2244A0-268D-784C-B381-78B7A07CE711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="500" windowWidth="43660" windowHeight="24700" activeTab="1" xr2:uid="{3D016F5E-F790-E74F-836A-80237DB35255}"/>
+    <workbookView xWindow="1140" yWindow="500" windowWidth="43660" windowHeight="24700" activeTab="2" xr2:uid="{3D016F5E-F790-E74F-836A-80237DB35255}"/>
   </bookViews>
   <sheets>
     <sheet name="결함기록" sheetId="1" r:id="rId1"/>
     <sheet name="이슈등록" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="시나리오" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,10 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>steam 게임 테스트(3D 게임)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>참고자료 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,6 +146,90 @@
   </si>
   <si>
     <t>이슈 중요도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저스토리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스를 사용하면서 거치는 단계 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스명 : 네이버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사전 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기대결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트 접속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트가 노출되어야 한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획을 알 수 없으니 스토리에 따라 테스트를 진행하면서 오류를 발견하면 이슈리스트에 등록한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위에서부터 찬찬히</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토리 파트 명은 작성하면서 정리한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파트명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바로가기 문구 poip-down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌측 상단 세 줄 아이콘 위에 mouse over</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -156,7 +237,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -167,6 +248,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -204,7 +294,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -219,6 +309,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -557,7 +650,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -569,7 +662,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -577,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -651,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789603C5-52C0-4347-950F-2D73A3E4144F}">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -666,7 +759,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>17</v>
@@ -675,7 +768,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>15</v>
@@ -686,7 +779,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -919,6 +1012,103 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B90D55-8E57-5D40-925D-05517A39CF8B}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="3" max="3" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE287673-1E09-B24E-BE81-BE4CBDEEC8FB}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -951,17 +1141,17 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/24년/9월/테스트케이스 실습.xlsx
+++ b/24년/9월/테스트케이스 실습.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imac01/개발/multicampus/TIL/24년/9월/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2244A0-268D-784C-B381-78B7A07CE711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DD186A-D5F6-5A4F-9A00-E39027D08ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="500" windowWidth="43660" windowHeight="24700" activeTab="2" xr2:uid="{3D016F5E-F790-E74F-836A-80237DB35255}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="44800" windowHeight="25200" activeTab="2" xr2:uid="{3D016F5E-F790-E74F-836A-80237DB35255}"/>
   </bookViews>
   <sheets>
     <sheet name="결함기록" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,15 +221,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메뉴정리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바로가기 문구 poip-down</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>좌측 상단 세 줄 아이콘 위에 mouse over</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌측 상단 세 줄 아이콘 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바로가기 메뉴 pop-down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바로가기 문구 hover-down</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -294,7 +306,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -312,6 +324,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1013,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B90D55-8E57-5D40-925D-05517A39CF8B}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1025,22 +1040,22 @@
     <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1051,7 +1066,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1076,8 +1091,11 @@
       <c r="H6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -1088,21 +1106,41 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>45</v>
+    <row r="8" spans="1:9">
+      <c r="A8" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>38</v>
       </c>
       <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="6"/>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
         <v>47</v>
       </c>
-      <c r="H8" t="s">
-        <v>46</v>
+      <c r="G9" s="6"/>
+      <c r="H9" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A8:A9"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/24년/9월/테스트케이스 실습.xlsx
+++ b/24년/9월/테스트케이스 실습.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imac01/개발/multicampus/TIL/24년/9월/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DD186A-D5F6-5A4F-9A00-E39027D08ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B180FB21-39F0-204B-A312-994D0F23BFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="44800" windowHeight="25200" activeTab="2" xr2:uid="{3D016F5E-F790-E74F-836A-80237DB35255}"/>
   </bookViews>
   <sheets>
-    <sheet name="결함기록" sheetId="1" r:id="rId1"/>
+    <sheet name="테스트케이스" sheetId="1" r:id="rId1"/>
     <sheet name="이슈등록" sheetId="3" r:id="rId2"/>
     <sheet name="시나리오" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,10 +149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유저스토리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>네이버 테스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,10 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기획을 알 수 없으니 스토리에 따라 테스트를 진행하면서 오류를 발견하면 이슈리스트에 등록한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>위에서부터 찬찬히</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -213,10 +205,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>파트명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기본</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,6 +230,26 @@
   </si>
   <si>
     <t>바로가기 문구 hover-down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시나리오 명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획을 알 수 없으니 시나리오에 따라 테스트를 진행하면서 오류를 발견하면 이슈리스트에 등록한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시나리오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바로가기 메뉴 내부 하위 버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 버튼에 연결된 페이지로 이동(새 탭으로 열림)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -665,7 +673,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -677,7 +685,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1028,68 +1036,69 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B90D55-8E57-5D40-925D-05517A39CF8B}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="3" max="3" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>34</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>35</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>36</v>
-      </c>
-      <c r="H6" t="s">
-        <v>37</v>
       </c>
       <c r="I6" t="s">
         <v>5</v>
@@ -1097,49 +1106,65 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
         <v>38</v>
-      </c>
-      <c r="H7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="6"/>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="6"/>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/24년/9월/테스트케이스 실습.xlsx
+++ b/24년/9월/테스트케이스 실습.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imac01/개발/multicampus/TIL/24년/9월/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B180FB21-39F0-204B-A312-994D0F23BFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B44F8AE-44F5-D44C-BA59-F3D404AC5902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="44800" windowHeight="25200" activeTab="2" xr2:uid="{3D016F5E-F790-E74F-836A-80237DB35255}"/>
+    <workbookView xWindow="1140" yWindow="500" windowWidth="43660" windowHeight="24700" activeTab="2" xr2:uid="{3D016F5E-F790-E74F-836A-80237DB35255}"/>
   </bookViews>
   <sheets>
     <sheet name="테스트케이스" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,26 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>step 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>step 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>step 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>step 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>step 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사전 조건</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,6 +230,30 @@
   </si>
   <si>
     <t>각 버튼에 연결된 페이지로 이동(새 탭으로 열림)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depth 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depth 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depth 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depth 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depth 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭 단위별로 깊이를 구분해 작성하면 될 거 같다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1036,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B90D55-8E57-5D40-925D-05517A39CF8B}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1051,7 +1055,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1061,110 +1065,115 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
         <v>35</v>
-      </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="H7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="G9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="6"/>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="6"/>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="6"/>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/24년/9월/테스트케이스 실습.xlsx
+++ b/24년/9월/테스트케이스 실습.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imac01/개발/multicampus/TIL/24년/9월/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B44F8AE-44F5-D44C-BA59-F3D404AC5902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EB38F9-23F7-5447-88D3-9725553126EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="500" windowWidth="43660" windowHeight="24700" activeTab="2" xr2:uid="{3D016F5E-F790-E74F-836A-80237DB35255}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,10 +169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사이트 접속</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사이트가 노출되어야 한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,14 +185,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>좌측 상단 세 줄 아이콘 위에 mouse over</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>좌측 상단 세 줄 아이콘 클릭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -225,14 +213,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>바로가기 메뉴 내부 하위 버튼 클릭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 버튼에 연결된 페이지로 이동(새 탭으로 열림)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>depth 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,6 +234,34 @@
   </si>
   <si>
     <t>클릭 단위별로 깊이를 구분해 작성하면 될 거 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈페이지</t>
+  </si>
+  <si>
+    <t>홈페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 상단 navbar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바로가기 아이콘들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mouse-over 시 아이콘 설명 문구 hover-down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>navbar 
+메뉴 작동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바로카기 아이콘들</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -261,7 +269,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -281,6 +289,14 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -318,7 +334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -339,6 +355,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1043,19 +1065,20 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="3" max="3" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="39.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1065,12 +1088,12 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1078,30 +1101,30 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
         <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
         <v>30</v>
@@ -1115,65 +1138,74 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s">
         <v>32</v>
       </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
+      <c r="A9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="H9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="6"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18" customHeight="1">
+      <c r="A10" s="8"/>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="6"/>
+      <c r="A11" s="8"/>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A9:A11"/>
     <mergeCell ref="G9:G11"/>
-    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/24년/9월/테스트케이스 실습.xlsx
+++ b/24년/9월/테스트케이스 실습.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imac01/개발/multicampus/TIL/24년/9월/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EB38F9-23F7-5447-88D3-9725553126EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3E3C67-D26A-6942-8251-493CF8D9E7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="500" windowWidth="43660" windowHeight="24700" activeTab="2" xr2:uid="{3D016F5E-F790-E74F-836A-80237DB35255}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,22 +185,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>좌측 상단 세 줄 아이콘 클릭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>바로가기 메뉴 pop-down</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바로가기 문구 hover-down</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>시나리오 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -248,20 +236,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>바로가기 아이콘들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mouse-over 시 아이콘 설명 문구 hover-down</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>navbar 
-메뉴 작동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바로카기 아이콘들</t>
+    <t>시나리오 별로 depth 1을 다르게 해도 될 거 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">navbar </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mouse over</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명 단어 hover-down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 페이지로 이동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -353,14 +356,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1062,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B90D55-8E57-5D40-925D-05517A39CF8B}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1078,7 +1081,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1088,124 +1091,131 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
         <v>35</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="8" t="s">
+      <c r="B10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E10" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="G10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+    </row>
+    <row r="11" spans="1:9" ht="18" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="8"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
         <v>51</v>
       </c>
-      <c r="D11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" t="s">
-        <v>38</v>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="G10:G12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/24년/9월/테스트케이스 실습.xlsx
+++ b/24년/9월/테스트케이스 실습.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imac01/개발/multicampus/TIL/24년/9월/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3E3C67-D26A-6942-8251-493CF8D9E7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C585A8-C017-424D-919F-F4104AC1F25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="500" windowWidth="43660" windowHeight="24700" activeTab="2" xr2:uid="{3D016F5E-F790-E74F-836A-80237DB35255}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,22 +232,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>화면 상단 navbar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>시나리오 별로 depth 1을 다르게 해도 될 거 같다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">navbar </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>search bar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mouse over</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,6 +253,31 @@
   </si>
   <si>
     <t>해당 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>navbar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logo 클릭 시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>navbar icon 클릭시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>navbar icon위에 마우스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 랜덤 게시물로 이동
+2. 특별한 날임을 알리는 로고일 때는 그 날에 대한 검색 결과로 이동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -360,10 +373,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1065,18 +1078,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B90D55-8E57-5D40-925D-05517A39CF8B}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1101,7 +1115,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1151,72 +1165,76 @@
       <c r="B9" t="s">
         <v>47</v>
       </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
       <c r="H9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="8" t="s">
-        <v>50</v>
+    <row r="10" spans="1:9" ht="18" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1">
-      <c r="A11" s="8"/>
+      <c r="A11" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="B11" t="s">
         <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="57">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
         <v>54</v>
       </c>
-      <c r="E11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="8"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="G10:G12"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/24년/9월/테스트케이스 실습.xlsx
+++ b/24년/9월/테스트케이스 실습.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imac01/개발/multicampus/TIL/24년/9월/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C585A8-C017-424D-919F-F4104AC1F25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E55A875-8445-5740-944C-19CA43EB38F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="500" windowWidth="43660" windowHeight="24700" activeTab="2" xr2:uid="{3D016F5E-F790-E74F-836A-80237DB35255}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,15 +269,27 @@
   </si>
   <si>
     <t>navbar icon 클릭시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>navbar icon위에 마우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. 랜덤 게시물로 이동
 2. 특별한 날임을 알리는 로고일 때는 그 날에 대한 검색 결과로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>navbar - 바로가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼선 icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"바로가기" 단어 hover-down</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -350,7 +362,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -374,9 +386,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1078,10 +1087,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B90D55-8E57-5D40-925D-05517A39CF8B}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1174,7 +1183,7 @@
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>46</v>
@@ -1183,25 +1192,21 @@
         <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" t="s">
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1">
-      <c r="A11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
+      <c r="A11" s="7"/>
+      <c r="B11" s="6"/>
       <c r="C11" t="s">
         <v>55</v>
       </c>
@@ -1209,29 +1214,60 @@
         <v>51</v>
       </c>
       <c r="E11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="6"/>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18" customHeight="1">
+      <c r="A13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" t="s">
+      <c r="H13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="57">
-      <c r="A12" t="s">
+    <row r="14" spans="1:9" ht="38">
+      <c r="A14" t="s">
         <v>56</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>47</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>54</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D14" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="7" t="s">
-        <v>59</v>
+      <c r="H14" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/24년/9월/테스트케이스 실습.xlsx
+++ b/24년/9월/테스트케이스 실습.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imac01/개발/multicampus/TIL/24년/9월/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E55A875-8445-5740-944C-19CA43EB38F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B996F0-EEB2-974F-A25B-271B29BEBF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="500" windowWidth="43660" windowHeight="24700" activeTab="2" xr2:uid="{3D016F5E-F790-E74F-836A-80237DB35255}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="44800" windowHeight="25200" activeTab="2" xr2:uid="{3D016F5E-F790-E74F-836A-80237DB35255}"/>
   </bookViews>
   <sheets>
     <sheet name="테스트케이스" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,60 +236,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mouse over</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>click</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>icons</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명 단어 hover-down</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 페이지로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Logo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>navbar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Logo 클릭 시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>navbar icon 클릭시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 랜덤 게시물로 이동
-2. 특별한 날임을 알리는 로고일 때는 그 날에 대한 검색 결과로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>navbar - 바로가기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼선 icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hover</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"바로가기" 단어 hover-down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>navbar - 바로가기 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mouse-over</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세 줄 모양 icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"바로가가" 메뉴 pop-down</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1087,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B90D55-8E57-5D40-925D-05517A39CF8B}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1183,92 +1154,65 @@
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
       <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" t="s">
         <v>55</v>
       </c>
-      <c r="D11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="6"/>
-      <c r="C12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="38">
-      <c r="A14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>58</v>
-      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1"/>
+    <row r="13" spans="1:9" ht="18" customHeight="1"/>
+    <row r="15" spans="1:9">
+      <c r="A15" s="7"/>
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="7"/>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="7"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="H18" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/24년/9월/테스트케이스 실습.xlsx
+++ b/24년/9월/테스트케이스 실습.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imac01/개발/multicampus/TIL/24년/9월/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B996F0-EEB2-974F-A25B-271B29BEBF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1E6D0F-EE27-294C-9C54-DB0D1088FCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="44800" windowHeight="25200" activeTab="2" xr2:uid="{3D016F5E-F790-E74F-836A-80237DB35255}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,7 +260,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"바로가가" 메뉴 pop-down</t>
+    <t>"바로가기" 메뉴 pop-down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바로가기 pop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"로그인하세요" 문구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"로그인" 페이지로 이동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1061,12 +1073,13 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="30.28515625" bestFit="1" customWidth="1"/>
@@ -1198,7 +1211,26 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1"/>
+    <row r="12" spans="1:9" ht="18" customHeight="1">
+      <c r="A12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="13" spans="1:9" ht="18" customHeight="1"/>
     <row r="15" spans="1:9">
       <c r="A15" s="7"/>
